--- a/data/Компетенции.xlsx
+++ b/data/Компетенции.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Competence\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Practice\PracticeApp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C4557B-94D4-4ACA-8A4A-D1DBD121BCCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2E1B90-5024-4E69-899E-4EABF795441F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>УК-1</t>
   </si>
@@ -28,49 +28,28 @@
     <t>способность использовать основы философских знаний для формирования мировоззренческой позиции</t>
   </si>
   <si>
-    <t>Знать: основные направления, проблемы, теории и методы философии, содержание современных философских дискуссий по проблемам общественного развития. Уметь:
-использовать положения и категории философии для оценивания и анализа различных социальных тенденций, фактов и явлений. Владеть навыками анализа текстов,
-имеющих философское содержание.</t>
-  </si>
-  <si>
     <t>УК-2</t>
   </si>
   <si>
     <t>способность анализировать основные этапы и закономерности исторического развития общества для формирования гражданской позиции</t>
   </si>
   <si>
-    <t>Знать: закономерности и этапы исторического процесса, основные исторические факты, даты, события и имена исторических деятелей России; основные события и процессы отечественной истории в контексте мировой истории. Уметь:
-критически воспринимать, анализировать и оценивать историческую информацию, факторы и механизмы исторических изменений. Владеть: навыками анализа причинноследственных связей в развитии российского государства и общества; места человека в историческом процессе и политической организации общества; навыками уважительного и бережного отношения к историческому наследию и культур.</t>
-  </si>
-  <si>
     <t>УК-3</t>
   </si>
   <si>
     <t>способность использовать основы экономических знаний в различных сферах жизнедеятельности</t>
   </si>
   <si>
-    <t>Знать: знать базовые экономические понятия (спрос, предложение, цена, стоимость, товар, деньги, доходы, расходы, прибыль, риск, собственность, управление, рынок, фирма, государство), объективные основы функционирования экономики и поведения экономических агентов (законы спроса и предложения, принципы ценообразования, принцип ограниченной рациональности, принцип альтернативных издержек, принцип изменения ценности денег во времени). знать основные виды финансовых институтов (банк, страховая организация, брокер,   биржа, негосударственный пенсионный фонд, центральный банк, агентство по страхованию вкладов, микрофинансовая организация, кредитный потребительский. кооператив, ломбард) и
-финансовых инструментов (банковский вклад, кредит, договор страхования, акция, облигация, пластиковая карта, индивидуальный инвестиционный счет), основы функционирования финансовых рынков. знать сущность и составные части издержек производства,источники и способыоптимизации издержек и прибыли фирм. знать основы ценообразования на рынках товаров и услуг. знать условия функционирования национальной экономики, понятие и факторы экономического роста. знать состав, структуру и способы расчета основных показателей результатов национального производства (валовой внутренний продукт, валовой национальный продукт, национальный доход, личный доход). знать значение государственной экономической политики в повышении эффективности экономики и роста благосостояния граждан, формы ее осуществления (денежно-кредитная, бюджетно-налоговая, социальная), основные методы и инструменты ее осуществления. знать основы российской налоговой системы. знать основы управления рисками (основные виды рисков, методы идентификации, измерения и оценки рисков; методы управления рисками: уклонение от риска, превентивные меры, контроль риска и финансирование риска, разделение, страховая и не страховая передача рисков)
-. уметь использовать понятийный аппарат экономической науки для описания экономических и финансовых процессов. уметь искать и собирать финансовую и экономическую информацию (цены на товары, валютные курсы, процентные ставки по депозитам и кредитам, уровень налогообложения, уровень зарплат при поиске работы). уметь анализировать финансовую и экономическую информацию, необходимую для принятия обоснованных решений в сфере личных финансов (сравнивать предлагаемые товары и услуги в координатах «цена – качество», предложения по депозитам, кредитам, другим финансовым продуктам, адекватность валютных курсов, предложения по зарплате). уметь оценивать процентные, кредитные, курсовые, рыночные, операционные, общеэкономические, политические риски неблагоприятных экономических и политических событий для личных финансов. уметь решать типичные задачи, связанные с личным финансовым планированием (рассчитать процентные ставки, оценить целесообразность взятия кредита с точки зрения текущих и будущих доходов и расходов, оценить эффективность страхования). владеть методами личного финансового планирования (бюджетирование, оценка будущих доходов и расходов, сравнение условий различных финансовых продуктов,управление рисками, применение инструментов защиты прав потребителя финансовых услуг)
-.</t>
-  </si>
-  <si>
     <t>УК-4</t>
   </si>
   <si>
     <t>использовать основы правовых знаний для применения в различных сферах жизнедеятельности</t>
   </si>
   <si>
-    <t>Знать: права, свободы и обязанности человека и гражданина. Знать: Организацию судебных, правоприменительных и правоохранительных органов. Знать: правовые нормы действующего законодательства, регулирующие отношения в различных сферах жизнедеятельности. Знать: основные положения и нормы конституционного, гражданского, семейного, трудового, административного и уголовного права. Уметь: защищать гражданские права. Уметь: использовать нормативноправовые знания в различных сферах жизнедеятельности. Владеть: навыками анализа нормативных актов, регулирующих отношения в различных сферах жизнедеятельности. Владеть: навыками реализации и защиты своих прав</t>
-  </si>
-  <si>
     <t>УК-5</t>
   </si>
   <si>
     <t>способность к коммуникации в устной и письменной формах на русском и иностранных языках для решения задач межличностного и межкультурного взаимодействия</t>
-  </si>
-  <si>
-    <t>Знать: основные нормы современного русского языка (орфографические, пунктуационные, грамматические, стилистические, орфоэпические) и систему функциональных стилей русского языка. Уметь: пользоваться основной справочной литературой, толковыми и нормативными словарями русского языка. Владеть: навыками создания на русском языке грамотных и логически непротиворечивых письменных и устных текстов учебной и научной тематики реферативного характера, ориентированных на соответствующее направление подготовки / специальность. Владеть иностранным.</t>
   </si>
   <si>
     <t>УК-6</t>
@@ -368,6 +347,52 @@
   </si>
   <si>
     <t>Владеть: методами поиска и отбора литературы, наиболее соответствующей заданной тематике. Уметь: составлять библиографический список по заданной тематике. Знать: государственные стандарты в области оформления библиографических ссылок и списков. Владеть методами анализа периодической литературы и интернет-ресурсов В (ПК-24) –II Уметь: отобрать наиболее соответствующие проблеме материалы, характеризующие различные подходы и авторские позиции; конспектировать основные тезисы, раскрывающие замысел автора, его позицию; интегрировать собранные материалы в единый содержательный блок. Знать: правила и методы конспектирования, составления, компедиумов, иллюстрирующих научный/практический взгляд на исследуемую проблему.</t>
+  </si>
+  <si>
+    <t>использовать положения и категории философии для оценивания и анализа различных социальных тенденций, фактов и явлений.</t>
+  </si>
+  <si>
+    <t>Владеть навыками анализа текстов, имеющих философское содержание.</t>
+  </si>
+  <si>
+    <t>основные направления, проблемы, теории и методы философии, содержание современных философских дискуссий по проблемам общественного развития.</t>
+  </si>
+  <si>
+    <t>критически воспринимать, анализировать и оценивать историческую информацию, факторы и механизмы исторических изменений.</t>
+  </si>
+  <si>
+    <t>навыками анализа причинноследственных связей в развитии российского государства и общества; места человека в историческом процессе и политической организации общества; навыками уважительного и бережного отношения к историческому наследию и культур.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Знать: закономерности и этапы исторического процесса, основные исторические факты, даты, события и имена исторических деятелей России; основные события и процессы отечественной истории в контексте мировой истории. </t>
+  </si>
+  <si>
+    <t>владеть методами личного финансового планирования (бюджетирование, оценка будущих доходов и расходов, сравнение условий различных финансовых продуктов,управление рисками, применение инструментов защиты прав потребителя финансовых услуг)</t>
+  </si>
+  <si>
+    <t>уметь использовать понятийный аппарат экономической науки для описания экономических и финансовых процессов. уметь искать и собирать финансовую и экономическую информацию (цены на товары, валютные курсы, процентные ставки по депозитам и кредитам, уровень налогообложения, уровень зарплат при поиске работы). уметь анализировать финансовую и экономическую информацию, необходимую для принятия обоснованных решений в сфере личных финансов (сравнивать предлагаемые товары и услуги в координатах «цена – качество», предложения по депозитам, кредитам, другим финансовым продуктам, адекватность валютных курсов, предложения по зарплате). уметь оценивать процентные, кредитные, курсовые, рыночные, операционные, общеэкономические, политические риски неблагоприятных экономических и политических событий для личных финансов. уметь решать типичные задачи, связанные с личным финансовым планированием (рассчитать процентные ставки, оценить целесообразность взятия кредита с точки зрения текущих и будущих доходов и расходов, оценить эффективность страхования).</t>
+  </si>
+  <si>
+    <t>Знать: знать базовые экономические понятия (спрос, предложение, цена, стоимость, товар, деньги, доходы, расходы, прибыль, риск, собственность, управление, рынок, фирма, государство), объективные основы функционирования экономики и поведения экономических агентов (законы спроса и предложения, принципы ценообразования, принцип ограниченной рациональности, принцип альтернативных издержек, принцип изменения ценности денег во времени). знать основные виды финансовых институтов (банк, страховая организация, брокер,   биржа, негосударственный пенсионный фонд, центральный банк, агентство по страхованию вкладов, микрофинансовая организация, кредитный потребительский. кооператив, ломбард) и
+финансовых инструментов (банковский вклад, кредит, договор страхования, акция, облигация, пластиковая карта, индивидуальный инвестиционный счет), основы функционирования финансовых рынков. знать сущность и составные части издержек производства,источники и способыоптимизации издержек и прибыли фирм. знать основы ценообразования на рынках товаров и услуг. знать условия функционирования национальной экономики, понятие и факторы экономического роста. знать состав, структуру и способы расчета основных показателей результатов национального производства (валовой внутренний продукт, валовой национальный продукт, национальный доход, личный доход). знать значение государственной экономической политики в повышении эффективности экономики и роста благосостояния граждан, формы ее осуществления (денежно-кредитная, бюджетно-налоговая, социальная), основные методы и инструменты ее осуществления. знать основы российской налоговой системы. знать основы управления рисками (основные виды рисков, методы идентификации, измерения и оценки рисков; методы управления рисками: уклонение от риска, превентивные меры, контроль риска и финансирование риска, разделение, страховая и не страховая передача рисков)</t>
+  </si>
+  <si>
+    <t>защищать гражданские права. Уметь: использовать нормативноправовые знания в различных сферах жизнедеятельности. Владеть: навыками анализа нормативных актов, регулирующих отношения в различных сферах жизнедеятельности.</t>
+  </si>
+  <si>
+    <t>навыками реализации и защиты своих прав</t>
+  </si>
+  <si>
+    <t>пользоваться основной справочной литературой, толковыми и нормативными словарями русского языка.</t>
+  </si>
+  <si>
+    <t>навыками создания на русском языке грамотных и логически непротиворечивых письменных и устных текстов учебной и научной тематики реферативного характера, ориентированных на соответствующее направление подготовки / специальность. Владеть иностранным.</t>
+  </si>
+  <si>
+    <t>Знать: основные нормы современного русского языка (орфографические, пунктуационные, грамматические, стилистические, орфоэпические) и систему функциональных стилей русского языка.</t>
+  </si>
+  <si>
+    <t>Знать: права, свободы и обязанности человека и гражданина. Знать: Организацию судебных, правоприменительных и правоохранительных органов. Знать: правовые нормы действующего законодательства, регулирующие отношения в различных сферах жизнедеятельности. Знать: основные положения и нормы конституционного, гражданского, семейного, трудового, административного и уголовного права. Уметь: защищать гражданские права.</t>
   </si>
 </sst>
 </file>
@@ -452,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -468,6 +493,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -689,7 +717,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -702,136 +730,156 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="C3" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
+        <v>111</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
+        <v>110</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -840,228 +888,228 @@
     </row>
     <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D31" s="1"/>
       <c r="F31" s="1"/>
@@ -1069,37 +1117,37 @@
     </row>
     <row r="32" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
